--- a/SEO/kewords.xlsx
+++ b/SEO/kewords.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>keyword</t>
   </si>
@@ -79,6 +79,15 @@
     <t>2.1K</t>
   </si>
   <si>
+    <t>talking fish</t>
+  </si>
+  <si>
+    <t>fish talk</t>
+  </si>
+  <si>
+    <t>AI fish</t>
+  </si>
+  <si>
     <t>draw a fish website</t>
   </si>
   <si>
@@ -89,56 +98,6 @@
   </si>
   <si>
     <t>3K</t>
-  </si>
-  <si>
-    <r>
-      <t>draw a fish</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4D87F7"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>网站</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt; 50</t>
-  </si>
-  <si>
-    <t>drawfish.com</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>draw a fish and watch it swim</t>
-  </si>
-  <si>
-    <t>鈥</t>
-  </si>
-  <si>
-    <t>draw a fish (facing right please) make it swim</t>
-  </si>
-  <si>
-    <t>draw a fish.com</t>
-  </si>
-  <si>
-    <t>draw fish.com</t>
-  </si>
-  <si>
-    <t>drawafish.con</t>
-  </si>
-  <si>
-    <t>interactive fish game</t>
-  </si>
-  <si>
-    <t>what is "drawafish.com"</t>
-  </si>
-  <si>
-    <t>drawafish.com/tank.html?capacity=50聽</t>
   </si>
 </sst>
 </file>
@@ -152,7 +111,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,12 +147,6 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF092540"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF8995A1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -341,12 +294,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF4D87F7"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -700,137 +647,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +832,30 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <extLst>
@@ -909,6 +880,22 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="26" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -960,6 +947,22 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
       <extLst>
@@ -967,81 +970,6 @@
           <etc:displayText val="2"/>
         </ext>
       </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <extLst>
-        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
-          <etc:displayText val="2"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-      <extLst>
-        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
-          <etc:displayText val="2"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-      <extLst>
-        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
-          <etc:displayText val="2"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-      <extLst>
-        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
-          <etc:displayText val="2"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <extLst>
-        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
-          <etc:displayText val="2"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="26" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-      <extLst>
-        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
-          <etc:displayText val="2"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-      <extLst>
-        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
-          <etc:displayText val="2"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-      <extLst>
-        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
-          <etc:displayText val="2"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-      <extLst>
-        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
-          <etc:displayText val="2"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1246,13 +1174,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -1268,7 +1196,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="1285875"/>
+              <a:off x="0" y="1857375"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1287,14 +1215,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1309,7 +1237,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="1657350"/>
+              <a:off x="0" y="2228850"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1328,14 +1256,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1350,7 +1278,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2028825"/>
+              <a:off x="0" y="2590800"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1369,14 +1297,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1391,7 +1319,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2400300"/>
+              <a:off x="0" y="2590800"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1410,14 +1338,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1432,7 +1360,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2771775"/>
+              <a:off x="0" y="2590800"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1451,14 +1379,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1473,7 +1401,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="3143250"/>
+              <a:off x="0" y="2590800"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1492,14 +1420,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1514,7 +1442,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="3514725"/>
+              <a:off x="0" y="2590800"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1533,14 +1461,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1555,7 +1483,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="3886200"/>
+              <a:off x="0" y="2590800"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1574,14 +1502,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1596,7 +1524,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="4257675"/>
+              <a:off x="0" y="2590800"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1615,14 +1543,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1637,7 +1565,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="4629150"/>
+              <a:off x="0" y="2590800"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1656,14 +1584,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1678,7 +1606,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="5000625"/>
+              <a:off x="0" y="2590800"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1944,19 +1872,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="3:9">
+    <row r="1" customHeight="1" spans="1:16">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +1896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="2:16">
+    <row r="2" ht="14.25" spans="1:16">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1987,17 +1916,17 @@
       <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="8">
         <v>958</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="9">
         <v>0.378</v>
       </c>
       <c r="N2" s="6" t="s">
@@ -2006,28 +1935,28 @@
       <c r="O2" s="1">
         <v>4</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="2:16">
+    <row r="3" ht="15" customHeight="1" spans="1:16">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>0.5223</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
       <c r="N3" s="6"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="23"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" ht="14.25" spans="1:16">
       <c r="A4" s="5"/>
@@ -2040,27 +1969,27 @@
       <c r="D4" s="3">
         <v>710</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6">
         <v>49</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="24">
+      <c r="L4" s="14">
         <v>0.4</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="9">
         <v>0.6302</v>
       </c>
       <c r="N4" s="6" t="s">
@@ -2075,20 +2004,20 @@
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>0.1022</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="22"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="9"/>
       <c r="N5" s="6"/>
       <c r="O5" s="1"/>
       <c r="P5" s="5"/>
@@ -2104,7 +2033,7 @@
       <c r="D6" s="3">
         <v>560</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="5"/>
@@ -2114,17 +2043,17 @@
       <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="8">
         <v>205</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="9">
         <v>0.7227</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -2139,940 +2068,288 @@
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="8">
+      <c r="D7" s="11">
         <v>0.0806</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="6"/>
       <c r="O7" s="1"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" ht="14.25" spans="1:16">
+    <row r="8" ht="15" customHeight="1" spans="1:16">
       <c r="A8" s="5"/>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3">
-        <v>430</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6">
-        <v>63</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="21">
-        <v>136</v>
-      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="22">
-        <v>0.3958</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:16">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8">
-        <v>0.0619</v>
-      </c>
-      <c r="E9" s="9"/>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="6"/>
       <c r="O9" s="1"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" ht="14.25" spans="1:16">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12">
+    <row r="10" ht="15" customHeight="1" spans="1:16">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:16">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
+        <v>430</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="I11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="8">
+        <v>136</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0.3958</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:16">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="11">
+        <v>0.0619</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="19">
         <v>410</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="16">
+      <c r="F13" s="16"/>
+      <c r="G13" s="21">
         <v>14</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="25">
+      <c r="I13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="23">
         <v>268</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="25" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M13" s="24">
         <v>0.5859</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O13" s="17">
         <v>1</v>
       </c>
-      <c r="P10" s="11"/>
+      <c r="P13" s="16"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:16">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18">
+    <row r="14" ht="15" customHeight="1" spans="1:16">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="25">
         <v>0.059</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:16">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3">
-        <v>270</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="21">
-        <v>220</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="27">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:16">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8">
-        <v>0.0388</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:16">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3">
-        <v>180</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="21">
-        <v>83</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="22">
-        <v>0.8463</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:16">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8">
-        <v>0.0259</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="3">
-        <v>110</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="21">
-        <v>470</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="27">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:16">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8">
-        <v>0.0158</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:16">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3">
-        <v>110</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="21">
-        <v>240</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="27">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:16">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8">
-        <v>0.0158</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:16">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="3">
-        <v>100</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="21">
-        <v>290</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="27">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:16">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8">
-        <v>0.0144</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:16">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="3">
-        <v>70</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="21">
-        <v>160</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="27">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:16">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="8">
-        <v>0.0101</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="6"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:16">
-      <c r="A24" s="5"/>
-      <c r="B24" s="1">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="3">
-        <v>60</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="21">
-        <v>130</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="27">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:16">
-      <c r="A25" s="5"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8">
-        <v>0.0086</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="6"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:16">
-      <c r="A26" s="5"/>
-      <c r="B26" s="1">
-        <v>13</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="3">
-        <v>60</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="27">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="1">
-        <v>1</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:16">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="8">
-        <v>0.0086</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="6"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:16">
-      <c r="A28" s="5"/>
-      <c r="B28" s="1">
-        <v>14</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="3">
-        <v>50</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="21">
-        <v>100</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="27">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:16">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="8">
-        <v>0.0072</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="73">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P13:P14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId16" display="drawafish"/>
     <hyperlink ref="C4" r:id="rId17" display="draw a fish"/>
     <hyperlink ref="C6" r:id="rId18" display="drawafish.com"/>
-    <hyperlink ref="C8" r:id="rId19" display="draw a fish website"/>
-    <hyperlink ref="C10" r:id="rId20" display="drawfish"/>
-    <hyperlink ref="C12" r:id="rId21" display="draw a fish网站"/>
-    <hyperlink ref="C14" r:id="rId22" display="drawfish.com"/>
-    <hyperlink ref="C16" r:id="rId23" display="draw a fish and watch it swim"/>
-    <hyperlink ref="C18" r:id="rId24" display="draw a fish (facing right please) make it swim"/>
-    <hyperlink ref="C20" r:id="rId25" display="draw a fish.com"/>
-    <hyperlink ref="C22" r:id="rId26" display="draw fish.com"/>
-    <hyperlink ref="C24" r:id="rId27" display="drawafish.con"/>
-    <hyperlink ref="C26" r:id="rId28" display="interactive fish game"/>
-    <hyperlink ref="C28" r:id="rId29" display="what is &quot;drawafish.com&quot;"/>
+    <hyperlink ref="C11" r:id="rId19" display="draw a fish website"/>
+    <hyperlink ref="C13" r:id="rId20" display="drawfish"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3138,13 +2415,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -3163,14 +2440,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3188,14 +2465,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3213,14 +2490,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3238,14 +2515,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3263,14 +2540,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3288,14 +2565,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3313,14 +2590,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3338,14 +2615,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3363,14 +2640,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3388,14 +2665,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/SEO/kewords.xlsx
+++ b/SEO/kewords.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>keyword</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>3K</t>
+  </si>
+  <si>
+    <t>fishtalk.app</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1241,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="2228850"/>
-              <a:ext cx="0" cy="190500"/>
+              <a:ext cx="0" cy="200025"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1278,7 +1281,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2590800"/>
+              <a:off x="0" y="2600325"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1319,7 +1322,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2590800"/>
+              <a:off x="0" y="2600325"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1360,7 +1363,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2590800"/>
+              <a:off x="0" y="2600325"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1401,7 +1404,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2590800"/>
+              <a:off x="0" y="2600325"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1442,7 +1445,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2590800"/>
+              <a:off x="0" y="2600325"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1483,7 +1486,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2590800"/>
+              <a:off x="0" y="2600325"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1524,7 +1527,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2590800"/>
+              <a:off x="0" y="2600325"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1565,7 +1568,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2590800"/>
+              <a:off x="0" y="2600325"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1606,7 +1609,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2590800"/>
+              <a:off x="0" y="2600325"/>
               <a:ext cx="0" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1872,10 +1875,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2206,7 +2209,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" ht="14.25" spans="1:16">
       <c r="A13" s="16"/>
       <c r="B13" s="17">
         <v>5</v>
@@ -2267,6 +2270,11 @@
       <c r="N14" s="21"/>
       <c r="O14" s="17"/>
       <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="73">
